--- a/EXCEL Files/varible name.xlsx
+++ b/EXCEL Files/varible name.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Youth Tobacco Survey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Youth Tobacco Survey\EXCEL Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BCAB9B-3873-4123-A43C-9C891731933C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAB09CE-C3F5-4078-9D75-C5F777A3D251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD2013" sheetId="1" r:id="rId1"/>
@@ -710,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A8" zoomScale="104" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1320,13 +1320,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView zoomScale="104" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A16" zoomScale="104" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="126.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="196.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1625,13 +1625,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView zoomScale="104" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A6" zoomScale="104" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="126.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="196.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1931,10 +1931,13 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="3" max="3" width="196.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -2232,10 +2235,13 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="3" max="3" width="196.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -2330,7 +2336,7 @@
         <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -2341,7 +2347,7 @@
         <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -2532,11 +2538,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="3" max="3" width="196.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
